--- a/サーバー情報.xlsx
+++ b/サーバー情報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\作業\02_flywest\02_プログラミングスクール\Lesson\01_栗林\01_環境構築関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7045ACB3-497D-4C37-9367-0B329E31D4A1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB506E13-9D43-4329-A8C4-3DF962CFA87D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13068" yWindow="1896" windowWidth="23484" windowHeight="22896" activeTab="1" xr2:uid="{D8977060-02B2-45BE-8653-94C6C71FAAA6}"/>
+    <workbookView xWindow="7512" yWindow="1104" windowWidth="23484" windowHeight="22896" xr2:uid="{D8977060-02B2-45BE-8653-94C6C71FAAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="サーバー情報(栗林様)" sheetId="1" r:id="rId1"/>
@@ -577,29 +577,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,9 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B81311-8BB4-4FDB-BDF8-264327E1C770}">
   <dimension ref="B29:H182"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B165" sqref="B165:C166"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -1223,10 +1221,10 @@
       <c r="H162" s="15"/>
     </row>
     <row r="163" spans="2:8">
-      <c r="B163" s="22" t="s">
+      <c r="B163" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C163" s="23" t="s">
+      <c r="C163" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D163" s="15"/>
@@ -1236,8 +1234,8 @@
       <c r="H163" s="15"/>
     </row>
     <row r="164" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B164" s="24"/>
-      <c r="C164" s="25" t="s">
+      <c r="B164" s="29"/>
+      <c r="C164" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D164" s="15"/>
@@ -1247,10 +1245,10 @@
       <c r="H164" s="15"/>
     </row>
     <row r="165" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B165" s="26" t="s">
+      <c r="B165" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C165" s="27" t="s">
+      <c r="C165" s="25" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="15"/>
@@ -1260,10 +1258,10 @@
       <c r="H165" s="15"/>
     </row>
     <row r="166" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C166" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D166" s="15"/>
@@ -1273,7 +1271,7 @@
       <c r="H166" s="15"/>
     </row>
     <row r="167" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B167" s="28" t="s">
+      <c r="B167" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C167" s="17"/>
@@ -1306,7 +1304,7 @@
       <c r="H169" s="15"/>
     </row>
     <row r="170" spans="2:8">
-      <c r="B170" s="29" t="s">
+      <c r="B170" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C170" s="17"/>
@@ -1414,7 +1412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBB09B4-3814-4C2C-81ED-3FDCF60D0E7C}">
   <dimension ref="A3:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
